--- a/experiments/evaluation/llm-based/albert-base-v2_15/rem-100_remove/rem2/correct_predictions.xlsx
+++ b/experiments/evaluation/llm-based/albert-base-v2_15/rem-100_remove/rem2/correct_predictions.xlsx
@@ -471,17 +471,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
+          <t>Your palm is too close to the aircraft Please step farther away .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Camera sensor error</t>
+          <t>Your palm is too close to the aircraft</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,17 +501,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
+          <t>Your palm is too close to the aircraft Please step farther away .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Please step farther away</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -527,21 +527,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
+          <t>High wind velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Hardware malfunction</t>
+          <t>High wind velocity</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -561,57 +561,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+          <t>High wind velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-13</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+          <t>Warning: Max Flight Altitude Reached Adjust in Main Controller Settings if necessary .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Warning: Max Flight Altitude Reached</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -621,17 +621,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled Enable this option in Main Controller Settings if needed .</t>
+          <t>Warning: Max Flight Altitude Reached Adjust in Main Controller Settings if necessary .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Enable this option in Main Controller Settings if needed</t>
+          <t>Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -647,21 +647,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled Enable this option in Main Controller Settings if needed .</t>
+          <t>Strong wind Fly with caution .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled</t>
+          <t>Strong wind</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -681,137 +681,137 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>IMU calibration required Calibrate IMU .</t>
+          <t>Strong wind Fly with caution .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>IMU calibration required</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IMU calibration required Calibrate IMU .</t>
+          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Calibrate IMU</t>
+          <t>Camera sensor error</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Hardware malfunction</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D) Please fly with caution .</t>
+          <t>RTK Base Station Data Not Received Please make sure base station antenna is connected to the correct port .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D)</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -827,21 +827,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D) Please fly with caution .</t>
+          <t>RTK Base Station Data Not Received Please make sure base station antenna is connected to the correct port .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Please fly with caution</t>
+          <t>Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>6-17</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -857,21 +857,21 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode Enable Multiple Flight Modes in Settings menu to change .</t>
+          <t>Cannot track subject No image Please retry .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode</t>
+          <t>Cannot track subject</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -887,7 +887,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -947,21 +947,21 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received Please make sure base station antenna is connected to the correct port .</t>
+          <t>Warning: Critically low battery Please change the battery .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Warning: Critically low battery</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -977,21 +977,21 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received Please make sure base station antenna is connected to the correct port .</t>
+          <t>Warning: Critically low battery Please change the battery .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Please make sure base station antenna is connected to the correct port</t>
+          <t>Please change the battery</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>6-17</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1007,201 +1007,201 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Weak signal Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight .</t>
+          <t>Vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Weak signal Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight .</t>
+          <t>Vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight</t>
+          <t>Vision sensor error</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2-18</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached Adjust altitude in MC Settings if required .</t>
+          <t>Right Dial Locked Lightly press to adjust .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Adjust altitude in MC Settings if required</t>
+          <t>Right Dial Locked</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached Adjust altitude in MC Settings if required .</t>
+          <t>Right Dial Locked Lightly press to adjust .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached</t>
+          <t>Lightly press to adjust</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
+          <t>Maximum Flight Altitude Reached Adjust altitude in MC Settings if required .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Battery overheating</t>
+          <t>Adjust altitude in MC Settings if required</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-10</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
+          <t>Maximum Flight Altitude Reached Adjust altitude in MC Settings if required .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Stop flying and wait for battery temperature to return to normal</t>
+          <t>Maximum Flight Altitude Reached</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Battery power low Check battery status and charge or warm up battery .</t>
+          <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Battery power low</t>
+          <t>Remote controller signal weak</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1217,21 +1217,21 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Battery power low Check battery status and charge or warm up battery .</t>
+          <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Check battery status and charge or warm up battery</t>
+          <t>Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3-11</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1247,21 +1247,21 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached Adjust in Main Controller Settings if necessary .</t>
+          <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached</t>
+          <t>IMU calibration required</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1277,21 +1277,21 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached Adjust in Main Controller Settings if necessary .</t>
+          <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Adjust in Main Controller Settings if necessary</t>
+          <t>Calibrate IMU</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1307,16 +1307,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cannot track subject Subject too Small Get Closer and retry .</t>
+          <t>Warning: Motor Overloaded Aircraft will decelerate to ensure safety .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cannot track subject</t>
+          <t>Warning: Motor Overloaded</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1337,21 +1337,21 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cannot track subject Subject too Small Get Closer and retry .</t>
+          <t>Warning: Motor Overloaded Aircraft will decelerate to ensure safety .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Get Closer and retry</t>
+          <t>Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1361,32 +1361,32 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cannot track subject Subject too Small Get Closer and retry .</t>
+          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Subject too Small</t>
+          <t>Max Altitude Approached</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1397,21 +1397,21 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Vision sensor error Contact DJI Support for assistance .</t>
+          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>3-11</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1427,16 +1427,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Vision sensor error Contact DJI Support for assistance .</t>
+          <t>Cannot track subject Subject too Large Move Away and retry .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Vision sensor error</t>
+          <t>Cannot track subject</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1457,21 +1457,21 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Motor unable to rotate Check motor .</t>
+          <t>Cannot track subject Subject too Large Move Away and retry .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Check motor</t>
+          <t>Move Away and retry</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1487,26 +1487,26 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Motor unable to rotate Check motor .</t>
+          <t>Cannot track subject Subject too Large Move Away and retry .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Motor unable to rotate</t>
+          <t>Subject too Large</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1517,7 +1517,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1577,81 +1577,81 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Weak signal Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Fly with caution and land in a safe place ASAP</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3-12</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Weak signal Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>2-18</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>IMU warming up Wait before taking off .</t>
+          <t>Switched to gimbal free mode Use the RC to control aircraft yaw .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>IMU warming up</t>
+          <t>Switched to gimbal free mode</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1667,21 +1667,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>IMU warming up Wait before taking off .</t>
+          <t>Switched to gimbal free mode Use the RC to control aircraft yaw .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Wait before taking off</t>
+          <t>Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1691,87 +1691,87 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery Please change the battery .</t>
+          <t>High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery</t>
+          <t>Fly with caution and land in a safe place ASAP</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>3-12</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery Please change the battery .</t>
+          <t>High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Please change the battery</t>
+          <t>High wind velocity</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode Turn on "Multiple Flight Modes" to enable Atti and Sport Modes .</t>
+          <t>Low battery Recharge promptly .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode</t>
+          <t>Low battery</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1787,21 +1787,21 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode Turn on "Multiple Flight Modes" to enable Atti and Sport Modes .</t>
+          <t>Low battery Recharge promptly .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4-14</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1811,27 +1811,27 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Your palm is too close to the aircraft Please step farther away .</t>
+          <t>Battery power low Check battery status and charge or warm up battery .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Your palm is too close to the aircraft</t>
+          <t>Battery power low</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1847,21 +1847,21 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Your palm is too close to the aircraft Please step farther away .</t>
+          <t>Battery power low Check battery status and charge or warm up battery .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Please step farther away</t>
+          <t>Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>3-11</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1881,17 +1881,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Remote controller signal weak Adjust remote controller antennas .</t>
+          <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Remote controller signal weak</t>
+          <t>Strong Interference Detected</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1911,17 +1911,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Remote controller signal weak Adjust remote controller antennas .</t>
+          <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Adjust remote controller antennas</t>
+          <t>Be careful when flying long distances</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1941,12 +1941,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Strong wind Fly with caution .</t>
+          <t>Strong Interference Fly with caution .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Strong wind</t>
+          <t>Strong Interference</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Strong wind Fly with caution .</t>
+          <t>Strong Interference Fly with caution .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2001,12 +2001,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Cannot track subject No image Please retry .</t>
+          <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Cannot track subject</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2027,31 +2027,31 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Large Wind Velocity Fly with caution .</t>
+          <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Large Wind Velocity</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2061,57 +2061,57 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Large Wind Velocity Fly with caution .</t>
+          <t>Your aircraft has entered a Warning Zone (Class D) Please fly with caution .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Your aircraft has entered a Warning Zone (Class D)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Strong Interference Fly with caution .</t>
+          <t>Your aircraft has entered a Warning Zone (Class D) Please fly with caution .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Strong Interference</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2121,57 +2121,57 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Strong Interference Fly with caution .</t>
+          <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Strong Interference Now</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
+          <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2181,87 +2181,87 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped You can decelerate the descending speed and avoid obstacles using sticks .</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Power off aircraft and wait for temperature to return to normal</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4-14</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Strong Interference Detected Be careful when flying long distances .</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped You can decelerate the descending speed and avoid obstacles using sticks .</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Strong Interference Detected</t>
+          <t>You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>11-21</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Strong Interference Detected Be careful when flying long distances .</t>
+          <t>Cannot track subject Subject too Small Get Closer and retry .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Be careful when flying long distances</t>
+          <t>Cannot track subject</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2271,27 +2271,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Cannot track subject Subject too Large Move Away and retry .</t>
+          <t>Cannot track subject Subject too Small Get Closer and retry .</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Cannot track subject</t>
+          <t>Get Closer and retry</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2301,17 +2301,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Cannot track subject Subject too Large Move Away and retry .</t>
+          <t>Cannot track subject Subject too Small Get Closer and retry .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Move Away and retry</t>
+          <t>Subject too Small</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2321,32 +2321,32 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Cannot track subject Subject too Large Move Away and retry .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Subject too Large</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-13</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2361,57 +2361,57 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>High wind velocity Fly with caution .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>High wind velocity Fly with caution .</t>
+          <t>Large Wind Velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Large Wind Velocity</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2421,17 +2421,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Error: Course angle control error Please ensure the propellers are installed on the correct motors .</t>
+          <t>Large Wind Velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Please ensure the propellers are installed on the correct motors</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5-14</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2447,21 +2447,21 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Error: Course angle control error Please ensure the propellers are installed on the correct motors .</t>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Error: Course angle control error</t>
+          <t>Incompatible firmware version</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2477,21 +2477,21 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded Aircraft will decelerate to ensure safety .</t>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded</t>
+          <t>Failed to lower or pack up landing gear</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2507,21 +2507,21 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded Aircraft will decelerate to ensure safety .</t>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Aircraft will decelerate to ensure safety</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2541,12 +2541,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>IMU warming up Wait before taking off .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Max Altitude Approached</t>
+          <t>IMU warming up</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2571,17 +2571,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>IMU warming up Wait before taking off .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Wait before taking off</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3-11</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2601,17 +2601,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Incompatible firmware version</t>
+          <t>Battery overheating</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2627,31 +2627,31 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode Use the RC to control aircraft yaw .</t>
+          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode</t>
+          <t>Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2661,52 +2661,52 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode Use the RC to control aircraft yaw .</t>
+          <t>Cannot switch flight mode Turn on "Multiple Flight Modes" to enable Atti and Sport Modes .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Use the RC to control aircraft yaw</t>
+          <t>Cannot switch flight mode</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment Manually adjust flight route or return to home .</t>
+          <t>Cannot switch flight mode Turn on "Multiple Flight Modes" to enable Atti and Sport Modes .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment</t>
+          <t>Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>4-14</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2721,57 +2721,57 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment Manually adjust flight route or return to home .</t>
+          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Manually adjust flight route or return to home</t>
+          <t>Aircraft processor chip overheated</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>5-12</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Strong Interference Now Fly with caution .</t>
+          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Strong Interference Now</t>
+          <t>Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-14</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2781,57 +2781,57 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Strong Interference Now Fly with caution .</t>
+          <t>Aircraft in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft in high interference environment</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped You can decelerate the descending speed and avoid obstacles using sticks .</t>
+          <t>Aircraft in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped</t>
+          <t>Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>5-12</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2841,27 +2841,27 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped You can decelerate the descending speed and avoid obstacles using sticks .</t>
+          <t>Cannot change current flight mode Enable Multiple Flight Modes in Settings menu to change .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Cannot change current flight mode</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>11-21</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2871,27 +2871,27 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Critical low battery Recharge promptly .</t>
+          <t>Intelligent Flight Modes have not been enabled Enable this option in Main Controller Settings if needed .</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Enable this option in Main Controller Settings if needed</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2901,27 +2901,27 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Critical low battery Recharge promptly .</t>
+          <t>Intelligent Flight Modes have not been enabled Enable this option in Main Controller Settings if needed .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Intelligent Flight Modes have not been enabled</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2931,27 +2931,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Low battery Recharge promptly .</t>
+          <t>Error: Course angle control error Please ensure the propellers are installed on the correct motors .</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Low battery</t>
+          <t>Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>5-14</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2961,27 +2961,27 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Low battery Recharge promptly .</t>
+          <t>Error: Course angle control error Please ensure the propellers are installed on the correct motors .</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Error: Course angle control error</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2991,17 +2991,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3021,17 +3021,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3051,27 +3051,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Right Dial Locked Lightly press to adjust .</t>
+          <t>Motor unable to rotate Check motor .</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Right Dial Locked</t>
+          <t>Check motor</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -3081,27 +3081,27 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Right Dial Locked Lightly press to adjust .</t>
+          <t>Motor unable to rotate Check motor .</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Lightly press to adjust</t>
+          <t>Motor unable to rotate</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
